--- a/auto_ti.xlsx
+++ b/auto_ti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>ATC_Name</t>
   </si>
@@ -46,6 +46,9 @@
     <t>QOS_ONU_FUNC_NCY_01</t>
   </si>
   <si>
+    <t>TRANSPORT_L2FWD_CC_TRAF_TEMPLATE_01</t>
+  </si>
+  <si>
     <t>['12.4.2.1.1', '12.4.3.1.1', '15', '26.4.2.1.1', '26.4.3.1.1', '29']</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>['12.4.2.1.1', '12.4.3.1.1', '15', '15.1', '15.1.1', '15.2', '15.2.1', '15.3', '15.3.1', '15.4', '15.4.1', '15.5', '15.5.1', '15.6', '15.6.1', '15.7', '15.7.1', '15.8', '15.8.1', '28.4.2.1.1', '28.4.3.1.1', '31', '31.1', '31.1.1', '31.2', '31.2.1', '31.3', '31.3.1', '31.4', '31.4.1', '31.5', '31.5.1', '31.6', '31.6.1', '31.7', '31.7.1', '31.8', '31.8.1']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>ERROR MSG: Several failures occurred:
@@ -87,16 +93,39 @@
 FAILED KW: ${i} IN RANGE [ 0 | 8 ]</t>
   </si>
   <si>
-    <t>BBN-45705</t>
+    <t xml:space="preserve">ERROR MSG: Parent suite setup failed:
+KeyError: 'xgs'
+FAILED KW: </t>
+  </si>
+  <si>
+    <t>BBN-12345</t>
+  </si>
+  <si>
+    <t>BBN-45678</t>
+  </si>
+  <si>
+    <t>BBN-78989</t>
+  </si>
+  <si>
+    <t>BBN-11122</t>
+  </si>
+  <si>
+    <t>SW</t>
   </si>
   <si>
     <t>ATC</t>
   </si>
   <si>
+    <t>ENV</t>
+  </si>
+  <si>
     <t>LSFX_NFXSD_FANTF_FWLTB_ONU_IOP_EONU_STAND_01</t>
   </si>
   <si>
-    <t>2021-12-24 15:50:02</t>
+    <t>2021-12-28 13:26:59</t>
+  </si>
+  <si>
+    <t>2021-12-28 13:42:54</t>
   </si>
 </sst>
 </file>
@@ -457,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,22 +528,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -522,22 +551,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -545,22 +574,45 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
